--- a/reports/corpus_wicaksono-unigram_bigram_trigram-fold-5.xlsx
+++ b/reports/corpus_wicaksono-unigram_bigram_trigram-fold-5.xlsx
@@ -582,88 +582,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9760869565217392</v>
+        <v>0.9978260869565218</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9833333333333333</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8777292576419214</v>
+        <v>0.9868995633187773</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6176470588235294</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8110236220472441</v>
+        <v>0.926509186351706</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9299363057324841</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7886792452830189</v>
+        <v>0.969811320754717</v>
       </c>
       <c r="M2" t="n">
-        <v>0.378125</v>
+        <v>0.85</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6694915254237288</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="O2" t="n">
-        <v>0.603448275862069</v>
+        <v>0.9827586206896551</v>
       </c>
       <c r="P2" t="n">
-        <v>0.98959236773634</v>
+        <v>0.9826539462272333</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3709677419354839</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3597678916827853</v>
+        <v>0.5841392649903289</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6767676767676768</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4875621890547264</v>
+        <v>0.900497512437811</v>
       </c>
       <c r="V2" t="n">
         <v>0.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8</v>
+        <v>0.9653846153846154</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2935323383084577</v>
+        <v>0.8159203980099502</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3465818759936407</v>
+        <v>0.7615262321144675</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7534542314335061</v>
+        <v>0.9084628670120898</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.546252176327197</v>
+        <v>0.8475652086069195</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8790543502106596</v>
+        <v>0.9291869382856458</v>
       </c>
     </row>
     <row r="3">
@@ -676,22 +676,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.995049504950495</v>
+        <v>0.9955947136563876</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.84</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -700,61 +700,61 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.983739837398374</v>
+        <v>0.9963369963369964</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9753086419753086</v>
+        <v>0.9819819819819819</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5815494393476045</v>
+        <v>0.8084195504816268</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9029126213592233</v>
+        <v>0.8908554572271387</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.9890710382513661</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9616858237547893</v>
       </c>
       <c r="X3" t="n">
-        <v>0.921875</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9864253393665159</v>
+        <v>0.9795501022494888</v>
       </c>
       <c r="Z3" t="n">
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7534542314335061</v>
+        <v>0.9084628670120898</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.811700129924196</v>
+        <v>0.9111235156023645</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7534542314335061</v>
+        <v>0.9084628670120898</v>
       </c>
     </row>
     <row r="4">
@@ -764,88 +764,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9878987898789879</v>
+        <v>0.9989118607181718</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9915966386554621</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9327146171693735</v>
+        <v>0.9912280701754385</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.711864406779661</v>
+        <v>0.9855072463768115</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8956521739130435</v>
+        <v>0.9618528610354223</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9636963696369637</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.5925925925925924</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8818565400843882</v>
+        <v>0.9846743295019157</v>
       </c>
       <c r="M4" t="n">
-        <v>0.54627539503386</v>
+        <v>0.9173693086003372</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7939698492462312</v>
+        <v>0.9519650655021833</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.9913043478260869</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7325842696629213</v>
+        <v>0.8870620473673909</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.7238095238095238</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5145228215767634</v>
+        <v>0.705607476635514</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8072289156626505</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6555183946488294</v>
+        <v>0.9427083333333334</v>
       </c>
       <c r="V4" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8739495798319328</v>
+        <v>0.963531669865643</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4452830188679245</v>
+        <v>0.8840970350404312</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5129411764705882</v>
+        <v>0.8568872987477639</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7534542314335061</v>
+        <v>0.9084628670120898</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6178118102758217</v>
+        <v>0.8628725387857713</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7693716050638068</v>
+        <v>0.9111018106612144</v>
       </c>
     </row>
     <row r="5">
@@ -855,82 +855,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E5" t="n">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>35</v>
+      </c>
+      <c r="H5" t="n">
+        <v>38</v>
+      </c>
+      <c r="I5" t="n">
+        <v>353</v>
+      </c>
+      <c r="J5" t="n">
+        <v>157</v>
+      </c>
+      <c r="K5" t="n">
         <v>25</v>
       </c>
-      <c r="H5" t="n">
-        <v>31</v>
-      </c>
-      <c r="I5" t="n">
-        <v>309</v>
-      </c>
-      <c r="J5" t="n">
-        <v>146</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6</v>
-      </c>
       <c r="L5" t="n">
-        <v>418</v>
+        <v>514</v>
       </c>
       <c r="M5" t="n">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c r="N5" t="n">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="O5" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="P5" t="n">
-        <v>3924</v>
+        <v>2803</v>
       </c>
       <c r="Q5" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="R5" t="n">
-        <v>206</v>
+        <v>339</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="U5" t="n">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="X5" t="n">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="Y5" t="n">
-        <v>221</v>
+        <v>489</v>
       </c>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7534542314335061</v>
+        <v>0.9084628670120898</v>
       </c>
       <c r="AB5" t="n">
         <v>6948</v>
